--- a/workbook-event-reader/src/test/resources/workbook.xlsx
+++ b/workbook-event-reader/src/test/resources/workbook.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\ExcelReader\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Java\WorkbookEventReader\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A86E7FD-7A56-47A0-9202-CA30E78C315D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EB78AC-0669-445C-8B50-E1ABD955DEE9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="26505" windowHeight="7065" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>Integer or Long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,15 +104,19 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>654321654321654321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-409]yyyy/m/d\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,13 +126,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -174,34 +178,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -517,17 +521,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -602,6 +606,9 @@
       </c>
       <c r="D6" s="5">
         <v>1234567890</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -642,11 +649,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -701,6 +708,7 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">

--- a/workbook-event-reader/src/test/resources/workbook.xlsx
+++ b/workbook-event-reader/src/test/resources/workbook.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Java\WorkbookEventReader\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\workbook-event-reader\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EB78AC-0669-445C-8B50-E1ABD955DEE9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA011C65-34CE-4021-962B-BC7B8F408914}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1890" yWindow="4935" windowWidth="15345" windowHeight="7890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Integer or Long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
   </si>
   <si>
     <t>The quick brown fox jumps over the lazy dog</t>
-  </si>
-  <si>
-    <t>Error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -66,6 +62,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>oolean</t>
@@ -82,6 +79,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ocalTime</t>
@@ -98,6 +96,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Time</t>
@@ -106,6 +105,27 @@
   </si>
   <si>
     <t>654321654321654321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bc123</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error/Exception</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,7 +136,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-409]yyyy/m/d\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +147,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -134,6 +155,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -141,6 +163,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -148,6 +171,15 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -174,7 +206,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -206,6 +238,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -522,9 +560,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -534,7 +574,7 @@
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,7 +591,7 @@
         <v>-10000000000</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -567,9 +607,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="9">
         <v>0.4375</v>
@@ -578,7 +618,7 @@
         <v>0.89584490740740741</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -586,7 +626,7 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -594,7 +634,7 @@
         <v>43413.333333333336</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -608,12 +648,12 @@
         <v>1234567890</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="b">
         <f>TRUE</f>
@@ -624,9 +664,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="e">
         <f ca="1">SUN()</f>
@@ -639,6 +679,12 @@
       <c r="D8" s="2" t="e">
         <f>D1/0</f>
         <v>#DIV/0!</v>
+      </c>
+      <c r="E8" s="11">
+        <v>123456789</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -652,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -684,7 +730,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -712,14 +758,14 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>

--- a/workbook-event-reader/src/test/resources/workbook.xlsx
+++ b/workbook-event-reader/src/test/resources/workbook.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\workbook-event-reader\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Java\WorkbookEventReader\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA011C65-34CE-4021-962B-BC7B8F408914}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91086DAD-BA6D-4557-A8E6-AAAAB068C787}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="4935" windowWidth="15345" windowHeight="7890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3915" yWindow="6375" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Integer or Long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +127,14 @@
   </si>
   <si>
     <t>Error/Exception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456789012345678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">123456789  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -244,6 +253,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -560,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -572,9 +584,11 @@
     <col min="2" max="2" width="41.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,7 +605,7 @@
         <v>-10000000000</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -606,8 +620,14 @@
         <f>D1+E1</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>1.2345678901234499E-4</v>
+      </c>
+      <c r="F2">
+        <v>222.222222222222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -618,7 +638,7 @@
         <v>0.89584490740740741</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -626,7 +646,7 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -634,7 +654,7 @@
         <v>43413.333333333336</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -650,8 +670,14 @@
       <c r="E6" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -664,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -698,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/workbook-event-reader/src/test/resources/workbook.xlsx
+++ b/workbook-event-reader/src/test/resources/workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Java\WorkbookEventReader\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91086DAD-BA6D-4557-A8E6-AAAAB068C787}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20919ECE-A303-41E5-8A09-D2C0CBF89B8D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="6375" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="1620" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Integer or Long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,10 @@
   </si>
   <si>
     <t xml:space="preserve">123456789  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.12345678901234567890</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -588,7 +592,7 @@
     <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +609,7 @@
         <v>-10000000000</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -627,7 +631,7 @@
         <v>222.222222222222</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -638,7 +642,7 @@
         <v>0.89584490740740741</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -646,7 +650,7 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -654,7 +658,7 @@
         <v>43413.333333333336</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -676,8 +680,11 @@
       <c r="G6" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -690,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
